--- a/config_files/excel_temp.xlsx
+++ b/config_files/excel_temp.xlsx
@@ -10,7 +10,6 @@
   <sheets>
     <sheet name="initial_hashes" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="file_info" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="file_no_header" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -22,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t xml:space="preserve">path</t>
   </si>
@@ -49,9 +48,6 @@
   </si>
   <si>
     <t xml:space="preserve">time_retrieved</t>
-  </si>
-  <si>
-    <t xml:space="preserve">any _present_signatures</t>
   </si>
 </sst>
 </file>
@@ -152,7 +148,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -162,7 +158,7 @@
       <selection pane="topLeft" activeCell="D60" activeCellId="0" sqref="D60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="32.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="38.76"/>
@@ -247,7 +243,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -257,13 +253,13 @@
       <selection pane="topLeft" activeCell="H9" activeCellId="0" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="16.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="21.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="21.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
   </cols>
   <sheetData>
@@ -302,42 +298,4 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="21.3"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
 </file>
--- a/config_files/excel_temp.xlsx
+++ b/config_files/excel_temp.xlsx
@@ -5,11 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="initial_hashes" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="file_info" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="carved_files" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t xml:space="preserve">path</t>
   </si>
@@ -48,6 +49,15 @@
   </si>
   <si>
     <t xml:space="preserve">time_retrieved</t>
+  </si>
+  <si>
+    <t xml:space="preserve">file</t>
+  </si>
+  <si>
+    <t xml:space="preserve">output_path</t>
+  </si>
+  <si>
+    <t xml:space="preserve">date/time</t>
   </si>
 </sst>
 </file>
@@ -158,7 +168,7 @@
       <selection pane="topLeft" activeCell="D60" activeCellId="0" sqref="D60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="32.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="38.76"/>
@@ -249,17 +259,17 @@
   </sheetPr>
   <dimension ref="A1:H1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H9" activeCellId="0" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="16.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="21.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="21.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
   </cols>
   <sheetData>
@@ -298,4 +308,42 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/config_files/excel_temp.xlsx
+++ b/config_files/excel_temp.xlsx
@@ -5,12 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="initial_hashes" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="file_info" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="carved_files" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="regex" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t xml:space="preserve">path</t>
   </si>
@@ -58,6 +59,21 @@
   </si>
   <si>
     <t xml:space="preserve">date/time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">phone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">email</t>
+  </si>
+  <si>
+    <t xml:space="preserve">url</t>
+  </si>
+  <si>
+    <t xml:space="preserve">line_number</t>
   </si>
 </sst>
 </file>
@@ -168,7 +184,7 @@
       <selection pane="topLeft" activeCell="D60" activeCellId="0" sqref="D60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="32.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="38.76"/>
@@ -263,7 +279,7 @@
       <selection pane="topLeft" activeCell="H9" activeCellId="0" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.3"/>
@@ -317,8 +333,46 @@
   </sheetPr>
   <dimension ref="A1:D1"/>
   <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G1"/>
+  <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -331,10 +385,19 @@
         <v>9</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
